--- a/Ver2/Notion data/Lũy kế tháng CẦN THƠ.xlsx
+++ b/Ver2/Notion data/Lũy kế tháng CẦN THƠ.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>42300000</v>
+        <v>82800000</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>238321000</v>
+        <v>197821000</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>326850000</v>
+        <v>286350000</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="AH4" t="n">
-        <v>291350000</v>
+        <v>250850000</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>26000000</v>
+        <v>65500000</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>262267000</v>
+        <v>222767000</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>271200000</v>
+        <v>231700000</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="AH5" t="n">
-        <v>226000000</v>
+        <v>186500000</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>26000000</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>191774000</v>
+        <v>165774000</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="AE6" t="n">
-        <v>283900000</v>
+        <v>257900000</v>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="AH6" t="n">
-        <v>268900000</v>
+        <v>242900000</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>10000000</v>
+        <v>35500000</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="AA8" t="n">
-        <v>512827000</v>
+        <v>487327000</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>677300000</v>
+        <v>651800000</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="AH8" t="n">
-        <v>608100000</v>
+        <v>582600000</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>46900000</v>
+        <v>130500000</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="AA12" t="n">
-        <v>229554000</v>
+        <v>145954000</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="AE12" t="n">
-        <v>320500000</v>
+        <v>236900000</v>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="AH12" t="n">
-        <v>301500000</v>
+        <v>217900000</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-23T19:34:00.000Z</t>
+          <t>2024-07-24T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>11800000</v>
+        <v>35800000</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>87337000</v>
+        <v>88012000</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="AA13" t="n">
-        <v>184793000</v>
+        <v>184918000</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="AE13" t="n">
-        <v>272130000</v>
+        <v>272930000</v>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="AH13" t="n">
-        <v>226930000</v>
+        <v>227730000</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>238730000</v>
+        <v>263530000</v>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
